--- a/releaseNote.xlsx
+++ b/releaseNote.xlsx
@@ -34,7 +34,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adaf6e479b2fdd568cbb55726b7e9d827089d74a</t>
+    <t>3cf1118a2077840eee75c2bd7275c54dd6d333b0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,6 +298,51 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,51 +371,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,418 +677,418 @@
   <dimension ref="B1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H5"/>
+      <selection activeCell="D6" sqref="D6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="9"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="11">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="15" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="19"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="11">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="19"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="20"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="11">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="19"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="20"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="11">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="19"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="20"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="11">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="19"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="20"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="11">
+      <c r="B14" s="1">
         <v>6</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="19"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="20"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="11">
+      <c r="B16" s="1">
         <v>7</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="19"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="20"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="11">
+      <c r="B18" s="1">
         <v>8</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="19"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="20"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="11">
+      <c r="B20" s="1">
         <v>9</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="19"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="20"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="11">
+      <c r="B22" s="1">
         <v>10</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="19"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="20"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="11">
+      <c r="B24" s="1">
         <v>11</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="19"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="I4:M5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="I6:M7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="I8:M9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:H11"/>
+    <mergeCell ref="I10:M11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="I12:M13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:H15"/>
+    <mergeCell ref="I14:M15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:H17"/>
+    <mergeCell ref="I16:M17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:H19"/>
+    <mergeCell ref="I18:M19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:H21"/>
+    <mergeCell ref="I20:M21"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="D22:H23"/>
     <mergeCell ref="I22:M23"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:H25"/>
     <mergeCell ref="I24:M25"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:H19"/>
-    <mergeCell ref="I18:M19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:H21"/>
-    <mergeCell ref="I20:M21"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:H15"/>
-    <mergeCell ref="I14:M15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:H17"/>
-    <mergeCell ref="I16:M17"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:H11"/>
-    <mergeCell ref="I10:M11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="I12:M13"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="I6:M7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:H9"/>
-    <mergeCell ref="I8:M9"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:H3"/>
-    <mergeCell ref="I2:M3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="I4:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/releaseNote.xlsx
+++ b/releaseNote.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>测试版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>3cf1118a2077840eee75c2bd7275c54dd6d333b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b4e2dadcdf1f5da8e8601ac1602f7674a65dd1e3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,6 +302,36 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,36 +375,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,418 +681,422 @@
   <dimension ref="B1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:H7"/>
+      <selection activeCell="I6" sqref="I6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="20" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="24"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="25"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="1">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="9"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="1">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="1">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="1">
+      <c r="B10" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="1">
+      <c r="B12" s="11">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="1">
+      <c r="B14" s="11">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="1">
+      <c r="B16" s="11">
         <v>7</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="1">
+      <c r="B18" s="11">
         <v>8</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="1">
+      <c r="B20" s="11">
         <v>9</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="1">
+      <c r="B22" s="11">
         <v>10</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="1">
+      <c r="B24" s="11">
         <v>11</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:H23"/>
+    <mergeCell ref="I22:M23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:H25"/>
+    <mergeCell ref="I24:M25"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:H19"/>
+    <mergeCell ref="I18:M19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:H21"/>
+    <mergeCell ref="I20:M21"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:H15"/>
+    <mergeCell ref="I14:M15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:H17"/>
+    <mergeCell ref="I16:M17"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:H11"/>
+    <mergeCell ref="I10:M11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="I12:M13"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="I6:M7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="I8:M9"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:H3"/>
     <mergeCell ref="I2:M3"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:H5"/>
     <mergeCell ref="I4:M5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="I6:M7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:H9"/>
-    <mergeCell ref="I8:M9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:H11"/>
-    <mergeCell ref="I10:M11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="I12:M13"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:H15"/>
-    <mergeCell ref="I14:M15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:H17"/>
-    <mergeCell ref="I16:M17"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:H19"/>
-    <mergeCell ref="I18:M19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:H21"/>
-    <mergeCell ref="I20:M21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:H23"/>
-    <mergeCell ref="I22:M23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="I24:M25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/releaseNote.xlsx
+++ b/releaseNote.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>测试版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t>b4e2dadcdf1f5da8e8601ac1602f7674a65dd1e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">646d362294783e3746e1268d7e557a7bf8331bb2
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8221998452b0a37fef471125f0d27576eb27ec0f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,6 +311,51 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,51 +384,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,422 +690,426 @@
   <dimension ref="B1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:M7"/>
+      <selection activeCell="D10" sqref="D10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="9"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="11">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="15" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="19"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="11">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="15" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="19"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="11">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="19"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="20"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="11">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="19"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="20"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="11">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="19"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="9"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="20"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="11">
+      <c r="B14" s="1">
         <v>6</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="19"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="20"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="11">
+      <c r="B16" s="1">
         <v>7</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="19"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="20"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="11">
+      <c r="B18" s="1">
         <v>8</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="19"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="20"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="11">
+      <c r="B20" s="1">
         <v>9</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="19"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="20"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="11">
+      <c r="B22" s="1">
         <v>10</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="19"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="20"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="11">
+      <c r="B24" s="1">
         <v>11</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="19"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="I4:M5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="I6:M7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="I8:M9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:H11"/>
+    <mergeCell ref="I10:M11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="I12:M13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:H15"/>
+    <mergeCell ref="I14:M15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:H17"/>
+    <mergeCell ref="I16:M17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:H19"/>
+    <mergeCell ref="I18:M19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:H21"/>
+    <mergeCell ref="I20:M21"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="D22:H23"/>
     <mergeCell ref="I22:M23"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:H25"/>
     <mergeCell ref="I24:M25"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:H19"/>
-    <mergeCell ref="I18:M19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:H21"/>
-    <mergeCell ref="I20:M21"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:H15"/>
-    <mergeCell ref="I14:M15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:H17"/>
-    <mergeCell ref="I16:M17"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:H11"/>
-    <mergeCell ref="I10:M11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="I12:M13"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="I6:M7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:H9"/>
-    <mergeCell ref="I8:M9"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:H3"/>
-    <mergeCell ref="I2:M3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="I4:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/releaseNote.xlsx
+++ b/releaseNote.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>测试版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>8221998452b0a37fef471125f0d27576eb27ec0f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7fbb701dbb0b2006b00344a2eace070bbe7eb4da</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,6 +315,36 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,36 +388,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,426 +694,430 @@
   <dimension ref="B1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:H11"/>
+      <selection activeCell="I10" sqref="I10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="20" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="24"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="25"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="1">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="9"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="1">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="9"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="1">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="9"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="1">
+      <c r="B10" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="1">
+      <c r="B12" s="11">
         <v>5</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="9"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="1">
+      <c r="B14" s="11">
         <v>6</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="1">
+      <c r="B16" s="11">
         <v>7</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="1">
+      <c r="B18" s="11">
         <v>8</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="20"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="1">
+      <c r="B20" s="11">
         <v>9</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="1">
+      <c r="B22" s="11">
         <v>10</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="9"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="1">
+      <c r="B24" s="11">
         <v>11</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:H23"/>
+    <mergeCell ref="I22:M23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:H25"/>
+    <mergeCell ref="I24:M25"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:H19"/>
+    <mergeCell ref="I18:M19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:H21"/>
+    <mergeCell ref="I20:M21"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:H15"/>
+    <mergeCell ref="I14:M15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:H17"/>
+    <mergeCell ref="I16:M17"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:H11"/>
+    <mergeCell ref="I10:M11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="I12:M13"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="I6:M7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="I8:M9"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:H3"/>
     <mergeCell ref="I2:M3"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="D4:H5"/>
     <mergeCell ref="I4:M5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="I6:M7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:H9"/>
-    <mergeCell ref="I8:M9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:H11"/>
-    <mergeCell ref="I10:M11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="I12:M13"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:H15"/>
-    <mergeCell ref="I14:M15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:H17"/>
-    <mergeCell ref="I16:M17"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:H19"/>
-    <mergeCell ref="I18:M19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:H21"/>
-    <mergeCell ref="I20:M21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:H23"/>
-    <mergeCell ref="I22:M23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="I24:M25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/releaseNote.xlsx
+++ b/releaseNote.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>测试版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,19 @@
   </si>
   <si>
     <t>7fbb701dbb0b2006b00344a2eace070bbe7eb4da</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>905e8a8de3b091b53f32acc7f196b34e04a62650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">646d362294783e3746e1268d7e557a7bf8331bb2
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>646d362294783e3746e1268d7e557a7bf8331bb2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,8 +326,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,50 +403,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,430 +710,434 @@
   <dimension ref="B1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:M11"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="9"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="10"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="11">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="15" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="19"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="20"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="11">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="15" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="19"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="9"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="20"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="15" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="19"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="20"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="11">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="15" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="1">
         <v>6</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="19"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="11">
-        <v>5</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="11">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="19"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="20"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="11">
+      <c r="B16" s="1">
         <v>7</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="19"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="9"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="20"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="10"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="11">
+      <c r="B18" s="1">
         <v>8</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="19"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="9"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="20"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="10"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="11">
+      <c r="B20" s="1">
         <v>9</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="19"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="20"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="11">
+      <c r="B22" s="1">
         <v>10</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="19"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="20"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="11">
+      <c r="B24" s="1">
         <v>11</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="19"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="2:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:H3"/>
+    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:H5"/>
+    <mergeCell ref="I4:M5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:H7"/>
+    <mergeCell ref="I6:M7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:H9"/>
+    <mergeCell ref="I8:M9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:H11"/>
+    <mergeCell ref="I10:M11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="I12:M13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:H15"/>
+    <mergeCell ref="I14:M15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:H17"/>
+    <mergeCell ref="I16:M17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:H19"/>
+    <mergeCell ref="I18:M19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:H21"/>
+    <mergeCell ref="I20:M21"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="D22:H23"/>
     <mergeCell ref="I22:M23"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:H25"/>
     <mergeCell ref="I24:M25"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:H19"/>
-    <mergeCell ref="I18:M19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:H21"/>
-    <mergeCell ref="I20:M21"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:H15"/>
-    <mergeCell ref="I14:M15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:H17"/>
-    <mergeCell ref="I16:M17"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:H11"/>
-    <mergeCell ref="I10:M11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="I12:M13"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:H7"/>
-    <mergeCell ref="I6:M7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:H9"/>
-    <mergeCell ref="I8:M9"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:H3"/>
-    <mergeCell ref="I2:M3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="I4:M5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
